--- a/1 기능 정의/project04 - 요구사항 정의서 - 기범.xlsx
+++ b/1 기능 정의/project04 - 요구사항 정의서 - 기범.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$31</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="" roundtripDataSignature="AMtx7mi6DiWTCXz4A8VU66IOZAmpu+7wtg=="/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="110">
   <si>
     <t>로그인 및 계정관련</t>
   </si>
@@ -291,15 +291,2081 @@
     <t>형준</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>계정관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 로그인 - 아이디 비밀번호 입력
+소셜 로그인 - 네이버, 카카오, 구글, 페이스북</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디, 비밀번호, 이름, 전화번호, 주소, 이메일주소 계좌정보 입력</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>렌탈 서비스</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>렌탈 서비스 등록</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>렌탈 서비스 신청</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>렌탈 품목명, 품목 카테고리, 비용, 렌탈 기간, 품목 사진, 전달 방법(택배, 직거래)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">신청자명, 배송 주소, 신청 내용 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심 품목 등록</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 수정, 신청한 품목 목록, 등록한 품목 관리, 관심 품목 등록 관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심 있는 렌탈 서비스 품목을 등록</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>커뮤니티</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근 이슈 및 홈페이지 운영 관련 공지사항</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q&amp;A</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁금한 사항이 있는 경우 질문
+답변이 있는 경우 답변을 보여줌
+       - 게시글 제목, 작성자, 작성날짜, 질문 내용</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 신고</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량 회원(제목과 신고내용 증거자료)을 신고,  장난식으로 올리거나 사기인 경우 해당</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실시간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상담</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1대1 채팅 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">관리자 와의 실시간 채팅 상담 (로그인 필수) </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로그인화면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연결</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회원가입화면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연결</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카테고리별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>품목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>노출</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최근</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공지사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>노출</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 로그인 (아이디와 패스워드 입력)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 관리 - 회원의 기본 정보 관리
+불량회원 등록 및 관리 - 불량 회원으로 등록 후 등록 및 신청 제한
+회원 강제 탈퇴 - 불량회원을 탈퇴 처리 ( 사유 입력 )</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>커뮤니티</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 등록 및 수정 삭제 기능
+- (공지사항 제목, 공지사항 내용, 작성날짜)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록된 질문을 답변 등록
+- (답변자, 답변날짜, 답변내용)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 신고 관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고 내용을 확인 한 후 답변 후 불량회원으로 등록 조치</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시간 상담</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시간 채팅을 통한 문의사항에 대한 응답</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>렌탈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서비스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불량회원으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신고된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불량회원이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>올린</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>렌탈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서비스를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및
+오해의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소지가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>같은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용자에게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메시지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이메일로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보내짐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관심</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>품목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>취소</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물품이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하자가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>취소할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있음</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>중고장터</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>판매</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>품목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>판매할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물품들을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물품명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배송방법</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구매</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물품을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구매신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청자명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배송주소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>환불신청</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물품이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하자가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>환불</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있음</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중고장터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>장터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>글이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오해의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소지가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신고가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>들어온</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이메일로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전송</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -405,6 +2471,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -432,7 +2505,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -791,11 +2864,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -902,26 +3030,17 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -947,9 +3066,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -962,10 +3078,79 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -995,10 +3180,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1025,31 +3228,68 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1266,11 +3506,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1328,22 +3568,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="71"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="96"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1365,20 +3605,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="74"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="99"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1508,13 +3748,13 @@
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="79" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="24" t="s">
@@ -1523,29 +3763,29 @@
       <c r="E7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60" t="s">
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="60" t="s">
+      <c r="M7" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="75" t="s">
+      <c r="N7" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="67" t="s">
+      <c r="O7" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="67" t="s">
+      <c r="P7" s="73" t="s">
         <v>17</v>
       </c>
       <c r="Q7" s="1"/>
@@ -1567,12 +3807,12 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
-      <c r="F8" s="60"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="25">
         <v>43854</v>
       </c>
@@ -1588,11 +3828,11 @@
       <c r="K8" s="25">
         <v>43861</v>
       </c>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -1612,21 +3852,25 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" ht="33" customHeight="1">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
+      <c r="B9" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="87"/>
+      <c r="D9" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="64"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
       <c r="J9" s="26"/>
-      <c r="K9" s="37"/>
+      <c r="K9" s="36"/>
       <c r="L9" s="28"/>
-      <c r="M9" s="38"/>
+      <c r="M9" s="37"/>
       <c r="N9" s="5">
         <v>1</v>
       </c>
@@ -1655,19 +3899,25 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="33" customHeight="1">
-      <c r="A10" s="65"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="36"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>61</v>
+      </c>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
       <c r="J10" s="26"/>
-      <c r="K10" s="37"/>
+      <c r="K10" s="36"/>
       <c r="L10" s="28"/>
-      <c r="M10" s="38"/>
+      <c r="M10" s="37"/>
       <c r="N10" s="5">
         <v>1</v>
       </c>
@@ -1696,17 +3946,21 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="33" customHeight="1">
-      <c r="A11" s="65"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="39"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>63</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="27"/>
-      <c r="K11" s="37"/>
+      <c r="K11" s="36"/>
       <c r="L11" s="29"/>
       <c r="M11" s="13"/>
       <c r="N11" s="8">
@@ -1737,19 +3991,23 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="33" customHeight="1">
-      <c r="A12" s="65"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="39"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>71</v>
+      </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="27"/>
-      <c r="K12" s="37"/>
+      <c r="K12" s="36"/>
       <c r="L12" s="29"/>
-      <c r="M12" s="40"/>
+      <c r="M12" s="38"/>
       <c r="N12" s="8">
         <v>1</v>
       </c>
@@ -1778,19 +4036,25 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="33" customHeight="1">
-      <c r="A13" s="65"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="39"/>
+      <c r="A13" s="84"/>
+      <c r="B13" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="61" t="s">
+        <v>68</v>
+      </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="27"/>
-      <c r="K13" s="37"/>
+      <c r="K13" s="36"/>
       <c r="L13" s="29"/>
-      <c r="M13" s="40"/>
+      <c r="M13" s="38"/>
       <c r="N13" s="8"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
@@ -1813,17 +4077,21 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="33" customHeight="1">
-      <c r="A14" s="65"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="39"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>69</v>
+      </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="27"/>
-      <c r="K14" s="37"/>
+      <c r="K14" s="36"/>
       <c r="L14" s="29"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8">
@@ -1854,17 +4122,21 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="33" customHeight="1">
-      <c r="A15" s="65"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="39"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>72</v>
+      </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="27"/>
-      <c r="K15" s="37"/>
+      <c r="K15" s="36"/>
       <c r="L15" s="29"/>
       <c r="M15" s="13"/>
       <c r="N15" s="8">
@@ -1894,18 +4166,22 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
     </row>
-    <row r="16" spans="1:33" ht="33" customHeight="1">
-      <c r="A16" s="65"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="39"/>
+    <row r="16" spans="1:33" ht="31.5" customHeight="1">
+      <c r="A16" s="84"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="105" t="s">
+        <v>100</v>
+      </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="27"/>
-      <c r="K16" s="37"/>
+      <c r="K16" s="36"/>
       <c r="L16" s="29"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8">
@@ -1935,18 +4211,24 @@
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
     </row>
-    <row r="17" spans="1:33" ht="33" customHeight="1">
-      <c r="A17" s="65"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="7"/>
+    <row r="17" spans="1:33" ht="30" customHeight="1">
+      <c r="A17" s="84"/>
+      <c r="B17" s="115" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="41"/>
       <c r="F17" s="7"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="54"/>
+      <c r="I17" s="50"/>
       <c r="J17" s="27"/>
-      <c r="K17" s="37"/>
+      <c r="K17" s="36"/>
       <c r="L17" s="29"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8">
@@ -1977,17 +4259,21 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="33" customHeight="1">
-      <c r="A18" s="65"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="7"/>
+      <c r="A18" s="84"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="109" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="41"/>
       <c r="F18" s="7"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="54"/>
+      <c r="I18" s="50"/>
       <c r="J18" s="27"/>
-      <c r="K18" s="37"/>
+      <c r="K18" s="36"/>
       <c r="L18" s="29"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8">
@@ -2018,17 +4304,21 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="33" customHeight="1">
-      <c r="A19" s="65"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="7"/>
+      <c r="A19" s="84"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="114" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="41"/>
       <c r="F19" s="7"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="54"/>
+      <c r="I19" s="50"/>
       <c r="J19" s="27"/>
-      <c r="K19" s="37"/>
+      <c r="K19" s="36"/>
       <c r="L19" s="29"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8">
@@ -2059,17 +4349,23 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="33" customHeight="1">
-      <c r="A20" s="65"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="7"/>
+      <c r="A20" s="84"/>
+      <c r="B20" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="112" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="41"/>
       <c r="F20" s="7"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="27"/>
-      <c r="K20" s="37"/>
+      <c r="K20" s="36"/>
       <c r="L20" s="29"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8">
@@ -2099,20 +4395,24 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
     </row>
-    <row r="21" spans="1:33" ht="33" customHeight="1">
-      <c r="A21" s="65"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="55"/>
+    <row r="21" spans="1:33" ht="51" customHeight="1">
+      <c r="A21" s="84"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="51"/>
       <c r="F21" s="16"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="27"/>
-      <c r="K21" s="37"/>
+      <c r="K21" s="36"/>
       <c r="L21" s="29"/>
-      <c r="M21" s="43"/>
+      <c r="M21" s="40"/>
       <c r="N21" s="8">
         <v>1</v>
       </c>
@@ -2141,17 +4441,21 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="33" customHeight="1">
-      <c r="A22" s="65"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="39"/>
+      <c r="A22" s="84"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="61" t="s">
+        <v>79</v>
+      </c>
       <c r="E22" s="11"/>
       <c r="F22" s="12"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="27"/>
-      <c r="K22" s="37"/>
+      <c r="K22" s="36"/>
       <c r="L22" s="29"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8">
@@ -2178,17 +4482,23 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" ht="33" customHeight="1">
-      <c r="A23" s="65"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="39"/>
+      <c r="A23" s="84"/>
+      <c r="B23" s="120" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="121" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="122" t="s">
+        <v>82</v>
+      </c>
       <c r="E23" s="11"/>
       <c r="F23" s="15"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="27"/>
-      <c r="K23" s="37"/>
+      <c r="K23" s="36"/>
       <c r="L23" s="30"/>
       <c r="M23" s="13"/>
       <c r="N23" s="8">
@@ -2219,17 +4529,17 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="33" customHeight="1">
-      <c r="A24" s="65"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="11"/>
+      <c r="A24" s="84"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="119"/>
       <c r="F24" s="15"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="27"/>
-      <c r="K24" s="37"/>
+      <c r="K24" s="36"/>
       <c r="L24" s="30"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8">
@@ -2260,17 +4570,17 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="33" customHeight="1">
-      <c r="A25" s="65"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="39"/>
+      <c r="A25" s="84"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="46"/>
       <c r="E25" s="11"/>
       <c r="F25" s="15"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="27"/>
-      <c r="K25" s="37"/>
+      <c r="K25" s="36"/>
       <c r="L25" s="30"/>
       <c r="M25" s="13"/>
       <c r="N25" s="8">
@@ -2301,17 +4611,17 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" ht="33" customHeight="1" thickBot="1">
-      <c r="A26" s="66"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="45"/>
+      <c r="A26" s="85"/>
+      <c r="B26" s="110"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="42"/>
       <c r="E26" s="32"/>
       <c r="F26" s="32"/>
       <c r="G26" s="33"/>
       <c r="H26" s="33"/>
       <c r="I26" s="33"/>
       <c r="J26" s="34"/>
-      <c r="K26" s="46"/>
+      <c r="K26" s="43"/>
       <c r="L26" s="35"/>
       <c r="M26" s="32"/>
       <c r="N26" s="8">
@@ -2342,21 +4652,25 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" ht="33" customHeight="1" thickTop="1">
-      <c r="A27" s="61" t="s">
+      <c r="A27" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="79"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="36"/>
+      <c r="B27" s="108" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="82"/>
+      <c r="D27" s="60" t="s">
+        <v>86</v>
+      </c>
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
       <c r="J27" s="26"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="49"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="46"/>
       <c r="N27" s="8">
         <v>3</v>
       </c>
@@ -2382,20 +4696,24 @@
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
     </row>
-    <row r="28" spans="1:33" ht="33" customHeight="1">
-      <c r="A28" s="62"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="44"/>
+    <row r="28" spans="1:33" ht="51" customHeight="1">
+      <c r="A28" s="81"/>
+      <c r="B28" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="69"/>
+      <c r="D28" s="66" t="s">
+        <v>88</v>
+      </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="27"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="41"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="39"/>
       <c r="N28" s="8">
         <v>3</v>
       </c>
@@ -2422,19 +4740,25 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="33" customHeight="1">
-      <c r="A29" s="62"/>
-      <c r="B29" s="83"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="51"/>
+      <c r="A29" s="81"/>
+      <c r="B29" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="66" t="s">
+        <v>91</v>
+      </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="27"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="41"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="39"/>
       <c r="N29" s="8">
         <v>3</v>
       </c>
@@ -2461,19 +4785,23 @@
       <c r="AG29" s="1"/>
     </row>
     <row r="30" spans="1:33" ht="33" customHeight="1">
-      <c r="A30" s="62"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="41"/>
+      <c r="A30" s="81"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="61" t="s">
+        <v>92</v>
+      </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="27"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="41"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="39"/>
       <c r="N30" s="8">
         <v>3</v>
       </c>
@@ -2500,19 +4828,23 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" ht="33" customHeight="1">
-      <c r="A31" s="62"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="52"/>
+      <c r="A31" s="81"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="102" t="s">
+        <v>94</v>
+      </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="52"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="48"/>
       <c r="N31" s="8">
         <v>3</v>
       </c>
@@ -2537,10 +4869,16 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="33" customHeight="1">
-      <c r="A32" s="62"/>
-      <c r="B32" s="79"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
+      <c r="A32" s="81"/>
+      <c r="B32" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="103" t="s">
+        <v>98</v>
+      </c>
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
@@ -2572,10 +4910,16 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" ht="33" customHeight="1">
-      <c r="A33" s="62"/>
-      <c r="B33" s="79"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
+      <c r="A33" s="81"/>
+      <c r="B33" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
@@ -2607,17 +4951,21 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="33" customHeight="1">
-      <c r="A34" s="62"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
+      <c r="A34" s="81"/>
+      <c r="B34" s="118" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="118"/>
+      <c r="D34" s="105" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="14"/>
@@ -2642,18 +4990,18 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="33" customHeight="1">
-      <c r="A35" s="62"/>
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="75"/>
       <c r="D35" s="22"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
       <c r="M35" s="22"/>
       <c r="N35" s="14"/>
       <c r="O35" s="14"/>
@@ -2677,18 +5025,18 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="33" customHeight="1">
-      <c r="A36" s="62"/>
-      <c r="B36" s="85"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
       <c r="M36" s="21"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -2712,18 +5060,18 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="33" customHeight="1">
-      <c r="A37" s="63"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
       <c r="M37" s="21"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -10576,7 +12924,7 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
-  <mergeCells count="16">
+  <mergeCells count="25">
     <mergeCell ref="B2:O3"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="M7:M8"/>
@@ -10584,8 +12932,6 @@
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="L7:L8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="A7:A8"/>
@@ -10593,6 +12939,17 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="A27:A37"/>
     <mergeCell ref="A9:A26"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -10601,7 +12958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
